--- a/Modelo de dominio enriquecido/Cliente- Modelo de dominio enriquecido.xlsx
+++ b/Modelo de dominio enriquecido/Cliente- Modelo de dominio enriquecido.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESTEBAN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isabe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78BA282-A70B-4AB7-B971-50ABAAE960EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AA7F9C-F9CA-4B1D-8491-4C4ED2874F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="109">
   <si>
     <t>Descripción</t>
   </si>
@@ -269,72 +269,18 @@
     <t>Los mismos definidos en tienda origninal</t>
   </si>
   <si>
-    <t>Crear Tienda</t>
-  </si>
-  <si>
-    <t>Modificar Tienda</t>
-  </si>
-  <si>
     <t>Consultar Tienda</t>
   </si>
   <si>
-    <t>Eliminar Tienda</t>
-  </si>
-  <si>
     <t>Accion la cual se encarga de consultar lo que contiene la tienda.</t>
   </si>
   <si>
-    <t>Accion la cual se encarga de cerrar una tienda al publico.</t>
-  </si>
-  <si>
-    <t>Acccion la cual se encarga de poner en servicio una tienda para vender productos para el servicio al cliente.</t>
-  </si>
-  <si>
-    <t>Contiene la informacion de la tienda que se quiere crear.</t>
-  </si>
-  <si>
     <t>Contiene la informacion de la tienda que se quiere consultar.</t>
   </si>
   <si>
-    <t>Contiene la informacion de la tienda que se quiere modificar.</t>
-  </si>
-  <si>
     <t>Pol-Tienda-001</t>
   </si>
   <si>
-    <t>Pol-Tienda-002</t>
-  </si>
-  <si>
-    <t>Accion la cual se encarga de modificar la tienda y lo que contendra.</t>
-  </si>
-  <si>
-    <t>No se puede crear una nueva tienda sin darle una ubicación precisa.</t>
-  </si>
-  <si>
-    <t>No se puede crear una nueva tienda sin darle un nombre a la tienda y a la sede, tiene que cumplir que ninguno de estos nombres se repita.</t>
-  </si>
-  <si>
-    <t>Los datos del vendedor de la tienda se podran modificar teniendo en cuenta que no se puede repetir un mismo vendedor en diferentes tiendas.</t>
-  </si>
-  <si>
-    <t>Se debe indicar que la nueva ubicación existe en otra tienda y darle toda la informacion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se cancela la creacion de tienda </t>
-  </si>
-  <si>
-    <t>Se debe indicar con los datos del vendedor que estan en otra tienda distinta a la asignada.</t>
-  </si>
-  <si>
-    <t>Se cancela la modificacion de la tienda</t>
-  </si>
-  <si>
-    <t>El nombre de la tienda y sede solo se podran modificar teniendo en cuenta el parametro de que no se puede repetir.</t>
-  </si>
-  <si>
-    <t>Se debe indicar que existe otra tienda con el mismo nombre.</t>
-  </si>
-  <si>
     <t>si se envian parametros de consulta deben ser validos a nivel tipo de dato, longitud, obligatoriedad, formato, rango</t>
   </si>
   <si>
@@ -342,15 +288,6 @@
   </si>
   <si>
     <t>Se cancela consultar tienda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debe existir la tienda que se esta eliminando </t>
-  </si>
-  <si>
-    <t>Se debe indicar que la tienda que se quiere eliminar no existe.</t>
-  </si>
-  <si>
-    <t>Se cancela eliminar tienda</t>
   </si>
   <si>
     <t>Crear Cliente</t>
@@ -956,7 +893,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1019,18 +956,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1047,9 +978,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1071,36 +999,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1120,236 +1018,269 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1729,7 +1660,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1753,7 +1684,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1764,26 +1695,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="45" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1801,8 +1732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView zoomScale="61" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1832,70 +1763,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="85" t="str">
+      <c r="B2" s="64" t="str">
         <f>'Listado Objetos de Dominio'!$A$2</f>
         <v>Tienda</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="86" t="str">
+      <c r="B3" s="65" t="str">
         <f>'Listado Objetos de Dominio'!$B$2</f>
         <v>Objeto dominio que representa la tienda física o virtual donde se pueden realizar las compras.</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -1946,21 +1877,21 @@
       <c r="P4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="30" t="str">
+      <c r="Q4" s="28" t="str">
         <f>A19</f>
-        <v>Crear Tienda</v>
-      </c>
-      <c r="R4" s="28" t="str">
+        <v>Consultar Tienda</v>
+      </c>
+      <c r="R4" s="26">
         <f>A21</f>
-        <v>Modificar Tienda</v>
-      </c>
-      <c r="S4" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="S4" s="27">
         <f>A23</f>
-        <v>Consultar Tienda</v>
-      </c>
-      <c r="T4" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
         <f>A24</f>
-        <v>Eliminar Tienda</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
@@ -2000,10 +1931,10 @@
       <c r="P5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="27"/>
+      <c r="Q5" s="25"/>
       <c r="R5" s="21"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="26"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="24"/>
     </row>
     <row r="6" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -2044,10 +1975,10 @@
       <c r="P6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q6" s="27"/>
+      <c r="Q6" s="25"/>
       <c r="R6" s="21"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="26"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="24"/>
     </row>
     <row r="7" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
@@ -2088,10 +2019,10 @@
       <c r="P7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" s="27"/>
+      <c r="Q7" s="25"/>
       <c r="R7" s="21"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="26"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="24"/>
     </row>
     <row r="8" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
@@ -2132,10 +2063,10 @@
       <c r="P8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="27"/>
+      <c r="Q8" s="25"/>
       <c r="R8" s="21"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="26"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="24"/>
     </row>
     <row r="9" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
@@ -2176,12 +2107,12 @@
       <c r="P9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Q9" s="27"/>
+      <c r="Q9" s="25"/>
       <c r="R9" s="21"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="26"/>
-    </row>
-    <row r="10" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="S9" s="23"/>
+      <c r="T9" s="24"/>
+    </row>
+    <row r="10" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>43</v>
       </c>
@@ -2220,10 +2151,10 @@
       <c r="P10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="Q10" s="27"/>
+      <c r="Q10" s="25"/>
       <c r="R10" s="21"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="26"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="24"/>
     </row>
     <row r="11" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
@@ -2264,17 +2195,17 @@
       <c r="P11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Q11" s="27"/>
+      <c r="Q11" s="25"/>
       <c r="R11" s="21"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="26"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="24"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="89"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="68"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
@@ -2294,50 +2225,50 @@
       <c r="B15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="36" t="str">
+      <c r="C15" s="33" t="str">
         <f>_xlfn.CONCAT(A6)</f>
         <v>Nombre Tienda</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91" t="s">
+      <c r="B17" s="70"/>
+      <c r="C17" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91" t="s">
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91" t="s">
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91" t="s">
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="93" t="s">
+      <c r="P17" s="70"/>
+      <c r="Q17" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="R17" s="93"/>
+      <c r="R17" s="46"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="92"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="19" t="s">
         <v>28</v>
       </c>
@@ -2350,12 +2281,12 @@
       <c r="J18" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="93" t="s">
+      <c r="K18" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
       <c r="O18" s="19" t="s">
         <v>30</v>
       </c>
@@ -2370,236 +2301,149 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="106" t="s">
+      <c r="B19" s="56"/>
+      <c r="C19" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="100" t="str">
+      <c r="H19" s="53" t="str">
         <f>'Listado Objetos de Dominio'!A2</f>
         <v>Tienda</v>
       </c>
-      <c r="I19" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" s="100"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="P19" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q19" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="R19" s="20" t="s">
-        <v>92</v>
+      <c r="I19" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="P19" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q19" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="R19" s="59" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="104"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="P20" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q20" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="R20" s="20" t="s">
-        <v>92</v>
-      </c>
+      <c r="A20" s="90"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="60"/>
     </row>
     <row r="21" spans="1:18" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="74" t="str">
-        <f>'Listado Objetos de Dominio'!A2</f>
-        <v>Tienda</v>
-      </c>
-      <c r="I21" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="J21" s="72"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="P21" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q21" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="R21" s="21" t="s">
-        <v>94</v>
-      </c>
+      <c r="A21" s="128"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="97"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="64"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="P22" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q22" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="R22" s="21" t="s">
-        <v>94</v>
-      </c>
+      <c r="A22" s="130"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="97"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="110" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="111"/>
-      <c r="C23" s="112" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="48" t="str">
-        <f>'Listado Objetos de Dominio'!A2</f>
-        <v>Tienda</v>
-      </c>
-      <c r="I23" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="J23" s="24"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="P23" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q23" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="R23" s="24" t="s">
-        <v>99</v>
-      </c>
+      <c r="A23" s="126"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="97"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="49" t="str">
-        <f>'Listado Objetos de Dominio'!A2</f>
-        <v>Tienda</v>
-      </c>
-      <c r="I24" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="P24" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q24" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="R24" s="26" t="s">
-        <v>102</v>
-      </c>
+      <c r="A24" s="125"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="97"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:F18"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="O17:P17"/>
+  <mergeCells count="35">
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="K24:N24"/>
@@ -2613,6 +2457,25 @@
     <mergeCell ref="K21:N22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:F23"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:F18"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="C19:F20"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -2632,8 +2495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2663,70 +2526,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="85" t="str">
+      <c r="B2" s="64" t="str">
         <f>'Listado Objetos de Dominio'!$A$3</f>
         <v>Cliente</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="86" t="str">
+      <c r="B3" s="65" t="str">
         <f>'Listado Objetos de Dominio'!$B$3</f>
         <v>Objeto de dominio el cual nos representa a la persona que compra en la tienda</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -2777,19 +2640,19 @@
       <c r="P4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="30" t="str">
+      <c r="Q4" s="28" t="str">
         <f>A18</f>
         <v>Crear Cliente</v>
       </c>
-      <c r="R4" s="28" t="str">
+      <c r="R4" s="26" t="str">
         <f>A21</f>
         <v>Consultar Cliente</v>
       </c>
-      <c r="S4" s="29" t="str">
+      <c r="S4" s="27" t="str">
         <f>A23</f>
         <v>Modificar Cliente</v>
       </c>
-      <c r="T4" s="51"/>
+      <c r="T4" s="38"/>
     </row>
     <row r="5" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
@@ -2828,10 +2691,10 @@
       <c r="P5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="27"/>
+      <c r="Q5" s="25"/>
       <c r="R5" s="21"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="50"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="37"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -2870,10 +2733,10 @@
       <c r="P6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" s="27"/>
+      <c r="Q6" s="25"/>
       <c r="R6" s="21"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="50"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="37"/>
     </row>
     <row r="7" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
@@ -2914,10 +2777,10 @@
       <c r="P7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Q7" s="27"/>
+      <c r="Q7" s="25"/>
       <c r="R7" s="21"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="50"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="37"/>
     </row>
     <row r="8" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
@@ -2958,10 +2821,10 @@
       <c r="P8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="Q8" s="27"/>
+      <c r="Q8" s="25"/>
       <c r="R8" s="21"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="50"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="37"/>
     </row>
     <row r="9" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
@@ -3002,16 +2865,16 @@
       <c r="P9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q9" s="27"/>
+      <c r="Q9" s="25"/>
       <c r="R9" s="21"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="50"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="37"/>
     </row>
     <row r="10" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="38" t="str">
+      <c r="B10" s="35" t="str">
         <f>Tienda!B2</f>
         <v>Tienda</v>
       </c>
@@ -3043,18 +2906,18 @@
       <c r="P10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Q10" s="27"/>
+      <c r="Q10" s="25"/>
       <c r="R10" s="21"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="50"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="37"/>
     </row>
     <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="89"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="68"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
@@ -3068,57 +2931,57 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="36" t="s">
         <v>73</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="36" t="str">
+      <c r="C14" s="33" t="str">
         <f>A6</f>
         <v>Numero Identificación</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91" t="s">
+      <c r="B16" s="70"/>
+      <c r="C16" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91" t="s">
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91" t="s">
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91" t="s">
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="91" t="s">
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="115"/>
+      <c r="R16" s="72"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="92"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
       <c r="G17" s="19" t="s">
         <v>28</v>
       </c>
@@ -3131,12 +2994,12 @@
       <c r="J17" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="93" t="s">
+      <c r="K17" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
       <c r="O17" s="19" t="s">
         <v>30</v>
       </c>
@@ -3146,213 +3009,232 @@
       <c r="Q17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R17" s="23" t="s">
+      <c r="R17" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="102" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="103"/>
-      <c r="C18" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="106" t="s">
+      <c r="A18" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="56"/>
+      <c r="C18" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="100" t="str">
+      <c r="H18" s="53" t="str">
         <f>'Listado Objetos de Dominio'!A3</f>
         <v>Cliente</v>
       </c>
-      <c r="I18" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="J18" s="100"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="96"/>
+      <c r="I18" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="53"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="49"/>
       <c r="O18" s="20" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="P18" s="20" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="Q18" s="20" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="R18" s="20" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="123"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="126"/>
-      <c r="N19" s="127"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="76"/>
       <c r="O19" s="20" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="P19" s="20" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="20" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="R19" s="20" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="104"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="99"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="52"/>
       <c r="O20" s="20" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="P20" s="20" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="Q20" s="20" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="R20" s="20" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="121" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="120" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="122" t="s">
+      <c r="A21" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="88"/>
+      <c r="C21" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="131" t="str">
+      <c r="H21" s="77" t="str">
         <f>'Listado Objetos de Dominio'!A3</f>
         <v>Cliente</v>
       </c>
-      <c r="I21" s="120" t="s">
-        <v>118</v>
-      </c>
-      <c r="J21" s="122"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="P21" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q21" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="R21" s="55" t="s">
-        <v>123</v>
+      <c r="I21" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="79"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P21" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q21" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="R21" s="42" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="121"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="120"/>
-      <c r="O22" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="P22" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q22" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="R22" s="52" t="s">
-        <v>123</v>
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q22" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="R22" s="39" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="116" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="116"/>
-      <c r="C23" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="31" t="s">
+      <c r="A23" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="84"/>
+      <c r="C23" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="56" t="str">
+      <c r="H23" s="43" t="str">
         <f>'Listado Objetos de Dominio'!A3</f>
         <v>Cliente</v>
       </c>
-      <c r="I23" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="J23" s="24"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="119"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="119"/>
-      <c r="O23" s="24" t="s">
+      <c r="I23" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="P23" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q23" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="R23" s="24" t="s">
-        <v>129</v>
+      <c r="J23" s="23"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="P23" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q23" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="R23" s="23" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K21:N22"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="C18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:N20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -3362,25 +3244,6 @@
     <mergeCell ref="C16:F17"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="J16:N16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:N20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="A18:B20"/>
-    <mergeCell ref="C18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K21:N22"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:F22"/>
-    <mergeCell ref="G21:G22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
@@ -3398,6 +3261,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -3541,22 +3419,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E282A27-30A7-45EE-9230-09337AE2DBA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3574,25 +3461,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6ebbfa72-b3b6-4c1f-8b23-058d4f67f013}" enabled="1" method="Privileged" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="0" removed="0"/>
